--- a/SAMPLES/Massivo_20220207-18694.xlsx
+++ b/SAMPLES/Massivo_20220207-18694.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruggero\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessio.palma/W1/FOGLI_EXCEL/SAMPLES.old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C799B6C6-9618-44E4-B7B7-6D08CBC272D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D369711C-9C40-ED4D-A4AD-B53B22417358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="500" windowWidth="21660" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>Codice</t>
   </si>
@@ -149,13 +149,73 @@
   </si>
   <si>
     <t>&lt; 35</t>
+  </si>
+  <si>
+    <t>&lt; 0.2</t>
+  </si>
+  <si>
+    <t>&lt; 0.3</t>
+  </si>
+  <si>
+    <t>&lt; 0.4</t>
+  </si>
+  <si>
+    <t>&lt; 0.5</t>
+  </si>
+  <si>
+    <t>&lt; 40</t>
+  </si>
+  <si>
+    <t>&lt; 39</t>
+  </si>
+  <si>
+    <t>&lt; 38</t>
+  </si>
+  <si>
+    <t>&lt; 37</t>
+  </si>
+  <si>
+    <t>&lt; 36</t>
+  </si>
+  <si>
+    <t>&lt; 3.0</t>
+  </si>
+  <si>
+    <t>&lt; 4.0</t>
+  </si>
+  <si>
+    <t>&lt; 5.0</t>
+  </si>
+  <si>
+    <t>&lt; 6.0</t>
+  </si>
+  <si>
+    <t>&lt; 36.0</t>
+  </si>
+  <si>
+    <t>&lt; 37.0</t>
+  </si>
+  <si>
+    <t>&lt; 38.0</t>
+  </si>
+  <si>
+    <t>&lt; 39.0</t>
+  </si>
+  <si>
+    <t>&lt; 40.0</t>
+  </si>
+  <si>
+    <t>31/12/2021</t>
+  </si>
+  <si>
+    <t>&lt; 113.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -192,7 +252,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,17 +532,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" customWidth="1"/>
-    <col min="2" max="7" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="7" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -528,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -551,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -574,12 +634,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -602,53 +662,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -671,7 +731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -694,220 +754,219 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F19" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="G19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>